--- a/uploads/Planilha1.xlsx
+++ b/uploads/Planilha1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NatanaelSilva\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59CF6126-E8A6-4D47-99C2-F47522BFC546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F1B753-2282-48D9-B390-06457E02FD98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="20460" windowHeight="10770" xr2:uid="{EBD49DAE-3F6C-46E2-9C49-8509704FD609}"/>
+    <workbookView xWindow="4410" yWindow="7125" windowWidth="20460" windowHeight="10770" xr2:uid="{EBD49DAE-3F6C-46E2-9C49-8509704FD609}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,24 +36,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Nome</t>
-  </si>
-  <si>
-    <t>Sobrenome</t>
   </si>
   <si>
     <t>Natanael</t>
   </si>
   <si>
-    <t>Silva</t>
+    <t>Programa</t>
   </si>
   <si>
-    <t>Teste</t>
-  </si>
-  <si>
-    <t>Programa</t>
+    <t>CPF</t>
   </si>
 </sst>
 </file>
@@ -428,36 +422,37 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
+      <c r="A2">
+        <v>48141278800</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
+      <c r="A3">
+        <v>10101</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
